--- a/03 Statistics/04_Laptop_Demand.xlsx
+++ b/03 Statistics/04_Laptop_Demand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AccelerateAi\DS Bootcamp\03 Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DC965E6-919E-4EBE-8154-6776494BD543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A446700C-20B4-4999-81AF-3A8C5A3D0F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="960" windowWidth="27750" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -30,46 +30,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
-  <si>
-    <t>Counts on 250 days of demands at Big Office</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Windows laptops</t>
-  </si>
-  <si>
-    <t>Mac laptops</t>
-  </si>
-  <si>
-    <t>Medium Low</t>
-  </si>
-  <si>
-    <t>Medium High</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Win_Low</t>
+  </si>
+  <si>
+    <t>Win_MediumLow</t>
+  </si>
+  <si>
+    <t>Win_MediumHigh</t>
+  </si>
+  <si>
+    <t>Win_High</t>
+  </si>
+  <si>
+    <t>Mac_Low</t>
+  </si>
+  <si>
+    <t>Mac_MediumLow</t>
+  </si>
+  <si>
+    <t>Mac_MediumHigh</t>
+  </si>
+  <si>
+    <t>Mac_High</t>
+  </si>
+  <si>
+    <t>Rownames</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,9 +172,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -529,151 +528,104 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>3</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="B3" s="5">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>2</v>
+      <c r="B4" s="5">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
         <v>17</v>
       </c>
-      <c r="E5" s="4">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <f>SUM(C5:F5)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2">
-        <v>22</v>
-      </c>
-      <c r="F6" s="7">
-        <v>27</v>
-      </c>
-      <c r="G6">
-        <f>SUM(C6:F6)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <f>SUM(C7:F7)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9">
-        <v>17</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D5" s="8">
         <v>19</v>
       </c>
-      <c r="F8" s="10">
+      <c r="E5" s="9">
         <v>11</v>
-      </c>
-      <c r="G8">
-        <f>SUM(C8:F8)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <f>SUM(C5:C8)</f>
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <f>SUM(D5:D8)</f>
-        <v>77</v>
-      </c>
-      <c r="E9">
-        <f>SUM(E5:E8)</f>
-        <v>72</v>
-      </c>
-      <c r="F9">
-        <f>SUM(F5:F8)</f>
-        <v>63</v>
-      </c>
-      <c r="G9">
-        <f>SUM(G5:G8)</f>
-        <v>250</v>
       </c>
     </row>
   </sheetData>
